--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/153.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/153.xlsx
@@ -479,13 +479,13 @@
         <v>0.03295864857642398</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.070604190517817</v>
+        <v>-1.998948269730748</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07886552614966154</v>
+        <v>0.005529197891967243</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07524686677451531</v>
+        <v>-0.09036863011312991</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.03071718589739889</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.256728194154931</v>
+        <v>-2.174022950387895</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1339523418321926</v>
+        <v>-0.05684860956041014</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06907568936717845</v>
+        <v>-0.08834491330767985</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.02843914614457538</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.406563137366889</v>
+        <v>-2.311803421344604</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.08231645733870205</v>
+        <v>-0.03623085100361879</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.07942787301362324</v>
+        <v>-0.09793286634615932</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.02563799902308345</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.492818729393277</v>
+        <v>-2.396846491065616</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005543226067532448</v>
+        <v>0.02951310866373113</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.07724862643560243</v>
+        <v>-0.1078385880572245</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.02236709908091492</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.442069059643101</v>
+        <v>-2.361049636626596</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01252262437774503</v>
+        <v>0.009790103739729175</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1066547320236566</v>
+        <v>-0.115138728637222</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.01848057830938782</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.100556785032238</v>
+        <v>-2.030369553234778</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1151612196960772</v>
+        <v>0.1346298876978752</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.08143024259538711</v>
+        <v>-0.09763095561116904</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.01368957676502927</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.808936021779365</v>
+        <v>-1.736827539850149</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0988684086581063</v>
+        <v>0.1174014583417728</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.07169773835651835</v>
+        <v>-0.07208564790693012</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.007567633397637248</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.360805953348881</v>
+        <v>-1.322776179312286</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09485818020848781</v>
+        <v>0.1017368656008524</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0750285151722395</v>
+        <v>-0.06869692862691791</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.001114922606020198</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9047237391349554</v>
+        <v>-0.8752914069578012</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03478282331083435</v>
+        <v>0.06522457420800666</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02990589757955688</v>
+        <v>0.02193179465175276</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.001977839554918819</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3976119015802269</v>
+        <v>-0.3515110472282249</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05026207617220786</v>
+        <v>-0.03631806966039376</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1004505428935907</v>
+        <v>0.09251059552368453</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.004716981298654731</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1251352525229382</v>
+        <v>0.169531988504106</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2896657005266486</v>
+        <v>-0.2583633515545847</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1903583399323452</v>
+        <v>0.1850215340107997</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.02843086674215436</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6115756585013216</v>
+        <v>0.6813865692412275</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.40023334064889</v>
+        <v>-0.3732376415753442</v>
       </c>
       <c r="G13" t="n">
-        <v>0.294229051023893</v>
+        <v>0.2833584348022123</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.07450201645399551</v>
       </c>
       <c r="E14" t="n">
-        <v>1.193641867862972</v>
+        <v>1.244611109056777</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6359512143537422</v>
+        <v>-0.608562116443694</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4767673310024053</v>
+        <v>0.444742226028395</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1468073447079102</v>
       </c>
       <c r="E15" t="n">
-        <v>1.673548193631354</v>
+        <v>1.762764950543353</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9413933900624022</v>
+        <v>-0.9254750703199546</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5676253844555332</v>
+        <v>0.5554830836228328</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2464701614644419</v>
       </c>
       <c r="E16" t="n">
-        <v>2.207064717123859</v>
+        <v>2.28048696819079</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.145792446936918</v>
+        <v>-1.141594972839538</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6385353722549392</v>
+        <v>0.647604282797506</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.37070294161863</v>
       </c>
       <c r="E17" t="n">
-        <v>2.655396669298347</v>
+        <v>2.732711434124285</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.490547059865374</v>
+        <v>-1.476370063655043</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7127639384565313</v>
+        <v>0.7525167384049395</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5135818964400706</v>
       </c>
       <c r="E18" t="n">
-        <v>2.984248820421951</v>
+        <v>3.105138758077477</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.826699961489652</v>
+        <v>-1.802522705863359</v>
       </c>
       <c r="G18" t="n">
-        <v>0.873363371692416</v>
+        <v>0.9142170784623543</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.667104886894425</v>
       </c>
       <c r="E19" t="n">
-        <v>3.14297945670428</v>
+        <v>3.332861181630839</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.158324812009753</v>
+        <v>-2.125778224857123</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9757318481571332</v>
+        <v>1.038057812351987</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8232676501776065</v>
       </c>
       <c r="E20" t="n">
-        <v>3.431055970904569</v>
+        <v>3.63586855399792</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.412294561966291</v>
+        <v>-2.37744491433826</v>
       </c>
       <c r="G20" t="n">
-        <v>1.089641853587954</v>
+        <v>1.157613243566788</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.973518898813643</v>
       </c>
       <c r="E21" t="n">
-        <v>3.6659900965398</v>
+        <v>3.85378223322782</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.667733000912438</v>
+        <v>-2.631123122211313</v>
       </c>
       <c r="G21" t="n">
-        <v>1.240406925831953</v>
+        <v>1.301976588387639</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.108940917821744</v>
       </c>
       <c r="E22" t="n">
-        <v>3.75563623760823</v>
+        <v>3.972696027890682</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.91174274621768</v>
+        <v>-2.889188489512214</v>
       </c>
       <c r="G22" t="n">
-        <v>1.214169968080282</v>
+        <v>1.329932912527063</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.220666051863687</v>
       </c>
       <c r="E23" t="n">
-        <v>3.877907035675912</v>
+        <v>4.119267285561361</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.172022430535515</v>
+        <v>-3.145152985042056</v>
       </c>
       <c r="G23" t="n">
-        <v>1.358903534751919</v>
+        <v>1.450867374391991</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.301425430085599</v>
       </c>
       <c r="E24" t="n">
-        <v>3.875873560139635</v>
+        <v>4.152359141799003</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.280086041319367</v>
+        <v>-3.285606128404276</v>
       </c>
       <c r="G24" t="n">
-        <v>1.445883712542283</v>
+        <v>1.55806886229926</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.346311459384605</v>
       </c>
       <c r="E25" t="n">
-        <v>3.905210744691216</v>
+        <v>4.198624064813051</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.388511030104193</v>
+        <v>-3.413429339352735</v>
       </c>
       <c r="G25" t="n">
-        <v>1.513667246952678</v>
+        <v>1.642510550232999</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.354762307977265</v>
       </c>
       <c r="E26" t="n">
-        <v>3.781343174291806</v>
+        <v>4.154168166526238</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.438473902181364</v>
+        <v>-3.512274304067879</v>
       </c>
       <c r="G26" t="n">
-        <v>1.537493798189841</v>
+        <v>1.679080784090135</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.329776709316021</v>
       </c>
       <c r="E27" t="n">
-        <v>3.744557638435778</v>
+        <v>4.112492286684044</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.493743999027257</v>
+        <v>-3.578280834586568</v>
       </c>
       <c r="G27" t="n">
-        <v>1.508703102564626</v>
+        <v>1.66382422828196</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.277140235711521</v>
       </c>
       <c r="E28" t="n">
-        <v>3.61800763690003</v>
+        <v>4.007840877126259</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.442605504845655</v>
+        <v>-3.562569277953538</v>
       </c>
       <c r="G28" t="n">
-        <v>1.456869603771869</v>
+        <v>1.634474845316843</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.20447072088257</v>
       </c>
       <c r="E29" t="n">
-        <v>3.391828312658841</v>
+        <v>3.81955714437278</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.398861079028269</v>
+        <v>-3.532514521725763</v>
       </c>
       <c r="G29" t="n">
-        <v>1.429665311826875</v>
+        <v>1.603071249512439</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.120301929474976</v>
       </c>
       <c r="E30" t="n">
-        <v>3.21544169262601</v>
+        <v>3.653346440910813</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.190030948437178</v>
+        <v>-3.374190702534825</v>
       </c>
       <c r="G30" t="n">
-        <v>1.353883277661606</v>
+        <v>1.548148502491953</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.032463313416167</v>
       </c>
       <c r="E31" t="n">
-        <v>3.054737353033724</v>
+        <v>3.488184801012852</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.170752880646864</v>
+        <v>-3.323238844080307</v>
       </c>
       <c r="G31" t="n">
-        <v>1.207203454110465</v>
+        <v>1.419267994050351</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9463449477773315</v>
       </c>
       <c r="E32" t="n">
-        <v>2.766451026120634</v>
+        <v>3.230353033331146</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.007979080198373</v>
+        <v>-3.169847453402231</v>
       </c>
       <c r="G32" t="n">
-        <v>1.162056515696897</v>
+        <v>1.374117396112723</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8649632639531019</v>
       </c>
       <c r="E33" t="n">
-        <v>2.530269002780776</v>
+        <v>3.003267366964309</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.942730376120542</v>
+        <v>-3.090680054520672</v>
       </c>
       <c r="G33" t="n">
-        <v>1.025324498383518</v>
+        <v>1.244448870156762</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7885453647157299</v>
       </c>
       <c r="E34" t="n">
-        <v>2.258954328618877</v>
+        <v>2.719607898305029</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.637979850459314</v>
+        <v>-2.785568455818809</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8935798024439071</v>
+        <v>1.092521899023558</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7172415415912765</v>
       </c>
       <c r="E35" t="n">
-        <v>2.09458924512475</v>
+        <v>2.52250349272442</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.524985945884969</v>
+        <v>-2.66816787435496</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8262006454421956</v>
+        <v>1.004908013650053</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6501779424520782</v>
       </c>
       <c r="E36" t="n">
-        <v>1.835982878183573</v>
+        <v>2.238768393901224</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.322173902611351</v>
+        <v>-2.481807831415944</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7038060334771326</v>
+        <v>0.882383488580843</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5857286369072313</v>
       </c>
       <c r="E37" t="n">
-        <v>1.577994970808619</v>
+        <v>1.977900441090665</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.268319736616528</v>
+        <v>-2.403420826040283</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6930543517874178</v>
+        <v>0.8650324651687142</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5219301277323876</v>
       </c>
       <c r="E38" t="n">
-        <v>1.349510756329999</v>
+        <v>1.748564167426628</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.098137229707578</v>
+        <v>-2.236256206639883</v>
       </c>
       <c r="G38" t="n">
-        <v>0.630186168110935</v>
+        <v>0.783749556419854</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4568381765908114</v>
       </c>
       <c r="E39" t="n">
-        <v>1.195825993806407</v>
+        <v>1.550011810159418</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.987102390346948</v>
+        <v>-2.122984788157617</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4730553537637166</v>
+        <v>0.6224682318673651</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3898217029614223</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9598568327827348</v>
+        <v>1.323481171608422</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.969423229610728</v>
+        <v>-2.090475406166269</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4038519240178517</v>
+        <v>0.5449845190139686</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3213828780641704</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6820556522236201</v>
+        <v>1.035771219734859</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.862723096499746</v>
+        <v>-1.983107409914248</v>
       </c>
       <c r="G41" t="n">
-        <v>0.38662898394784</v>
+        <v>0.5072401878540918</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2525136614866828</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4714171068259713</v>
+        <v>0.8283817217822467</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.836925281635334</v>
+        <v>-1.927445439033543</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3579133085658647</v>
+        <v>0.4610399164317798</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1851056868694504</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3296782506771669</v>
+        <v>0.6430737920106214</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.713856707322464</v>
+        <v>-1.818062264865546</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2688636699192948</v>
+        <v>0.370927186045638</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1206304028373418</v>
       </c>
       <c r="E44" t="n">
-        <v>0.147552886996813</v>
+        <v>0.4450282788257898</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.657098708985643</v>
+        <v>-1.748917387504649</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2730989590986332</v>
+        <v>0.3630299331231042</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.06016647171148183</v>
       </c>
       <c r="E45" t="n">
-        <v>0.06866513674554246</v>
+        <v>0.3300551816553972</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.651796058621996</v>
+        <v>-1.729163276626133</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2224602949116257</v>
+        <v>0.3094471818294338</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.005214250258430814</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.03700667010444231</v>
+        <v>0.2008892303370772</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.636188188504013</v>
+        <v>-1.68472994540436</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1376679025887572</v>
+        <v>0.2261448257198608</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.04430127493588486</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.1416843062513278</v>
+        <v>0.07908197198372255</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.583477623778092</v>
+        <v>-1.638763273601243</v>
       </c>
       <c r="G47" t="n">
-        <v>0.09172013832661906</v>
+        <v>0.1654351513183893</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.08881648732401552</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.1342329053434967</v>
+        <v>0.03056583175179827</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.470095199732658</v>
+        <v>-1.529980871299843</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02126759103477413</v>
+        <v>0.07643003688122199</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1286881363894342</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.2129590266154291</v>
+        <v>-0.06465681406413877</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.403455266591166</v>
+        <v>-1.450588716648902</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0110544693026279</v>
+        <v>0.06898900462489568</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.164883496025894</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2499391271673406</v>
+        <v>-0.1111779037624201</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.373222718486118</v>
+        <v>-1.400756367596556</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.05609901704868678</v>
+        <v>0.003990977945208641</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.197329702910615</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.36246522258262</v>
+        <v>-0.2378261025271241</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.214110271860145</v>
+        <v>-1.252316922892997</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.05974634269564016</v>
+        <v>-0.01876333274223116</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2265277650967831</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.4224728782851545</v>
+        <v>-0.2978227796574771</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.156461179414595</v>
+        <v>-1.189184033642805</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1408761613546366</v>
+        <v>-0.09700944644156276</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2533438119901404</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5218704311334319</v>
+        <v>-0.4120792200326908</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.102399030469001</v>
+        <v>-1.118738195478405</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1527891320128797</v>
+        <v>-0.1225992783552043</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2783970037811846</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.6389873994825941</v>
+        <v>-0.5245925071137585</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.03704907955883</v>
+        <v>-1.048526566853875</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2548166628192948</v>
+        <v>-0.2159055534047989</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3027175110505423</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6306363655765597</v>
+        <v>-0.5249499206303329</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.016893640875014</v>
+        <v>-1.002737381967691</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2598899830084851</v>
+        <v>-0.2361921250341161</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3269643282730315</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6773617787015516</v>
+        <v>-0.6022158918021304</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9910421529910476</v>
+        <v>-0.9759380773520586</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.297539776463466</v>
+        <v>-0.2791592069489865</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3515310294281524</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7658130851642317</v>
+        <v>-0.684064197018336</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9424223262440761</v>
+        <v>-0.9326404184303908</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2828016532305259</v>
+        <v>-0.2753618408155531</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3769182926467425</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7873414552914079</v>
+        <v>-0.7253174018315444</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9136102833951746</v>
+        <v>-0.9003853733612465</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3804395849263853</v>
+        <v>-0.3646475187640246</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4037965299351935</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8861242080975233</v>
+        <v>-0.8476943260969817</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9910933863278943</v>
+        <v>-0.9416532162706969</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3383105340213667</v>
+        <v>-0.3346003865447083</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4321995286783502</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.097312901945599</v>
+        <v>-1.047728790608689</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.012514410415963</v>
+        <v>-0.9797000680862407</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3752302524262801</v>
+        <v>-0.3769837743719308</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4623809153696595</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.26989971616229</v>
+        <v>-1.203511680260294</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.010734051960535</v>
+        <v>-0.9905346989879932</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3729784252877263</v>
+        <v>-0.3924824686887757</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4944606915000453</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.304182137560945</v>
+        <v>-1.262042108083745</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9366604056108372</v>
+        <v>-0.9280080708904893</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4096188000226891</v>
+        <v>-0.4291850553327669</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5285890820932251</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.440348758406979</v>
+        <v>-1.383520619192332</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.005188043246865</v>
+        <v>-0.9881877242238667</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4264379726046936</v>
+        <v>-0.4505621651321095</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5648780426827258</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.578220107544524</v>
+        <v>-1.50180497571679</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.052591078243724</v>
+        <v>-1.049891569328437</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4321742765695091</v>
+        <v>-0.4610735380751855</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6036844207511447</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.629759624571088</v>
+        <v>-1.568369278694366</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.097516615451633</v>
+        <v>-1.087319961577759</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4504779960787183</v>
+        <v>-0.479444348858837</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6445388022807699</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.641735417059036</v>
+        <v>-1.599647840760037</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.128928140224835</v>
+        <v>-1.098904794911911</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5194710031911051</v>
+        <v>-0.5406145133712533</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6870593280358287</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.692869336835563</v>
+        <v>-1.669964375740967</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.181156867616124</v>
+        <v>-1.152913270837952</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.509712882283813</v>
+        <v>-0.5354777614316811</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.730582554201272</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.753133769143009</v>
+        <v>-1.757494701981757</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.206253883622953</v>
+        <v>-1.188396016128447</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5547927294229387</v>
+        <v>-0.5774323750231498</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.77432762183264</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.64543336612216</v>
+        <v>-1.687703918624184</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.332628837924474</v>
+        <v>-1.291331108901863</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5322848266889051</v>
+        <v>-0.5552288227068135</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8172247265681637</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.623054766571597</v>
+        <v>-1.676276444824632</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.252507218144142</v>
+        <v>-1.250631712063142</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5358699404268301</v>
+        <v>-0.5695637883724231</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8573894271868806</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.622686984403518</v>
+        <v>-1.675996491234005</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.333983471747532</v>
+        <v>-1.324065551622931</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5263350504872277</v>
+        <v>-0.577518983759248</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8935085779057585</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.553220068925298</v>
+        <v>-1.633012941460863</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.507716936836509</v>
+        <v>-1.479295853141403</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5665001568131176</v>
+        <v>-0.5955128635646693</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.9235558805916569</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.530776207862323</v>
+        <v>-1.587301216500626</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.483044425620696</v>
+        <v>-1.485581695635968</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5977506625276579</v>
+        <v>-0.6311383302935233</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.9466473679017074</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.434246502036115</v>
+        <v>-1.495480098298913</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.556950953704966</v>
+        <v>-1.554616787275051</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5934781681870377</v>
+        <v>-0.629892262350927</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.9617004219948622</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.273698912057754</v>
+        <v>-1.343418944616824</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.610351948636965</v>
+        <v>-1.593333331993664</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5931939451516731</v>
+        <v>-0.6254697275238268</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.9680540860004166</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.132924950419565</v>
+        <v>-1.199547195861432</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.642088561130874</v>
+        <v>-1.621489100194385</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5459055752420426</v>
+        <v>-0.5755959038654613</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.9653989832415305</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.020749559393415</v>
+        <v>-1.06609777163031</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.669280654662332</v>
+        <v>-1.661603583104104</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4921599751276806</v>
+        <v>-0.5358010193903576</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.9537377779726838</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.8409357950779365</v>
+        <v>-0.8915195664040367</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.750200050687851</v>
+        <v>-1.729048611538905</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4625574750817136</v>
+        <v>-0.4774523479285779</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.9340195302005211</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6216693117870097</v>
+        <v>-0.6697298412734032</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.693851919045805</v>
+        <v>-1.693887294445056</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4397440020886292</v>
+        <v>-0.443569424573193</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.9071694831433802</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4556787896893489</v>
+        <v>-0.473101783741334</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.870089108512833</v>
+        <v>-1.852192206095014</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3636881135394999</v>
+        <v>-0.3686961722162782</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.8746292035644849</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1573086442275828</v>
+        <v>-0.183054005913795</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.845262287365803</v>
+        <v>-1.84963663845944</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3332579511351857</v>
+        <v>-0.3442194455377018</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.8379068482544447</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1293845698778419</v>
+        <v>0.06981788682459629</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.898443710854173</v>
+        <v>-1.905435231571736</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2071623405036155</v>
+        <v>-0.2144118576674429</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.7990819878949289</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3336122390421918</v>
+        <v>0.3158531786973187</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.928116961698643</v>
+        <v>-1.9456088767871</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1358345570406371</v>
+        <v>-0.1512862874653724</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.759525515009863</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5954566748562239</v>
+        <v>0.5712324553378212</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.871504124482888</v>
+        <v>-1.918128900696217</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.06817056708288434</v>
+        <v>-0.07576468942907441</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.7210257735737097</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7494897020862389</v>
+        <v>0.750392384687826</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.883800125326129</v>
+        <v>-1.925126520620547</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.01225913864538987</v>
+        <v>-0.0158448623039917</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.684759297391308</v>
       </c>
       <c r="E86" t="n">
-        <v>1.032151950439036</v>
+        <v>1.015689581452929</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.873472338506754</v>
+        <v>-1.904376409276901</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.01186512988821062</v>
+        <v>-0.0006114834815322042</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.6512008476997047</v>
       </c>
       <c r="E87" t="n">
-        <v>1.195817454916933</v>
+        <v>1.177940679881447</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.8081717911714</v>
+        <v>-1.812172870810867</v>
       </c>
       <c r="G87" t="n">
-        <v>0.07577071262965733</v>
+        <v>0.07610494916051527</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.6210634159058723</v>
       </c>
       <c r="E88" t="n">
-        <v>1.384570216670831</v>
+        <v>1.360549710658462</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.751624825388734</v>
+        <v>-1.751580911100008</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1352526167088349</v>
+        <v>0.1301542897718979</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.5943872376075846</v>
       </c>
       <c r="E89" t="n">
-        <v>1.447539647179654</v>
+        <v>1.440117522464307</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.578495181769737</v>
+        <v>-1.586274110080982</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1380692303940575</v>
+        <v>0.1417238750891318</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.5707702662499748</v>
       </c>
       <c r="E90" t="n">
-        <v>1.532864500253323</v>
+        <v>1.561675933181548</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.521639596124637</v>
+        <v>-1.515377540536464</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1670599800012462</v>
+        <v>0.1821518572267001</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.5491529461810117</v>
       </c>
       <c r="E91" t="n">
-        <v>1.6119724318689</v>
+        <v>1.638636944014972</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.232343240570851</v>
+        <v>-1.23650350950695</v>
       </c>
       <c r="G91" t="n">
-        <v>0.188635314020532</v>
+        <v>0.1930426008307134</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.5281742602381589</v>
       </c>
       <c r="E92" t="n">
-        <v>1.678811199151013</v>
+        <v>1.703278777019438</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.9790224462143736</v>
+        <v>-0.9783375052943855</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2373734653787925</v>
+        <v>0.2540346685055192</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.50660495702608</v>
       </c>
       <c r="E93" t="n">
-        <v>1.741370153044384</v>
+        <v>1.76579442654476</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.768167988897156</v>
+        <v>-0.7598468411042822</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2239454517595073</v>
+        <v>0.2283789651587889</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.484025020227298</v>
       </c>
       <c r="E94" t="n">
-        <v>1.815685937902751</v>
+        <v>1.829124930094218</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.5734703303069945</v>
+        <v>-0.5693417772460868</v>
       </c>
       <c r="G94" t="n">
-        <v>0.179440759818555</v>
+        <v>0.1768614052765874</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4599490298240294</v>
       </c>
       <c r="E95" t="n">
-        <v>1.806773776974109</v>
+        <v>1.795858636543026</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3953222593597147</v>
+        <v>-0.3877080096311919</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1686994467803449</v>
+        <v>0.1428308811174296</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4343789351021068</v>
       </c>
       <c r="E96" t="n">
-        <v>1.851425459798157</v>
+        <v>1.820726932296074</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.2280515137615598</v>
+        <v>-0.219250968316762</v>
       </c>
       <c r="G96" t="n">
-        <v>0.09775225381965734</v>
+        <v>0.07687649881660157</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4069097581415778</v>
       </c>
       <c r="E97" t="n">
-        <v>1.758177127212854</v>
+        <v>1.716269477513495</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.0612571162119451</v>
+        <v>-0.06556559587249339</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1110052202047159</v>
+        <v>0.06896094827376527</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3779249716503372</v>
       </c>
       <c r="E98" t="n">
-        <v>1.688976137149696</v>
+        <v>1.618632765658989</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04689340826834378</v>
+        <v>0.02569988459270227</v>
       </c>
       <c r="G98" t="n">
-        <v>0.07349509858471033</v>
+        <v>0.03893333351610488</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.34926860536469</v>
       </c>
       <c r="E99" t="n">
-        <v>1.58439242878703</v>
+        <v>1.505079563824066</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1270833391644715</v>
+        <v>0.1020570739561451</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03442236019087624</v>
+        <v>0.006356860250314358</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.322880800152364</v>
       </c>
       <c r="E100" t="n">
-        <v>1.433358381524585</v>
+        <v>1.352695762103977</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1660432422331072</v>
+        <v>0.1618427185323433</v>
       </c>
       <c r="G100" t="n">
-        <v>0.06344482567325584</v>
+        <v>0.0119492229354173</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3015895389330896</v>
       </c>
       <c r="E101" t="n">
-        <v>1.302824378128319</v>
+        <v>1.217669692923462</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2225328754721588</v>
+        <v>0.1997895433569004</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.03765074633908827</v>
+        <v>-0.06265627424440515</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2864233166852536</v>
       </c>
       <c r="E102" t="n">
-        <v>1.131582439003858</v>
+        <v>1.058361461760253</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2103741067811862</v>
+        <v>0.1931316492495186</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.01279281923754442</v>
+        <v>-0.03902977698921563</v>
       </c>
     </row>
   </sheetData>
